--- a/test1973.xlsx
+++ b/test1973.xlsx
@@ -776,7 +776,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -794,6 +794,22 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -821,10 +837,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -847,9 +867,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1181,11 +1205,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD129"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109:E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.1640625" customWidth="1"/>
+    <col min="11" max="11" width="87.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1222,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>2062</v>
       </c>
@@ -1257,7 +1294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>3057</v>
       </c>
@@ -1292,7 +1329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="120">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1954</v>
       </c>
@@ -1327,7 +1364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>3866</v>
       </c>
@@ -1362,7 +1399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>312</v>
       </c>
@@ -1397,7 +1434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>538</v>
       </c>
@@ -1467,7 +1504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="90">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>1145</v>
       </c>
@@ -1502,7 +1539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="165">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>4562</v>
       </c>
@@ -1537,7 +1574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>5089</v>
       </c>
@@ -1572,7 +1609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>3865</v>
       </c>
@@ -1607,7 +1644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="90">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>4491</v>
       </c>
@@ -1642,7 +1679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="75">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>4277</v>
       </c>
@@ -1677,7 +1714,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>764</v>
       </c>
@@ -1747,7 +1784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="75">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>4537</v>
       </c>
@@ -1782,7 +1819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>3204</v>
       </c>
@@ -1817,7 +1854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="75">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>520</v>
       </c>
@@ -1852,7 +1889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>2064</v>
       </c>
@@ -1887,7 +1924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="60">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>1822</v>
       </c>
@@ -1922,7 +1959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="60">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>3865</v>
       </c>
@@ -1957,7 +1994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>5090</v>
       </c>
@@ -2027,7 +2064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="75">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>612</v>
       </c>
@@ -2062,7 +2099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>123</v>
       </c>
@@ -2097,7 +2134,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="45">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>332</v>
       </c>
@@ -2132,7 +2169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="45">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>572</v>
       </c>
@@ -2167,7 +2204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>1971</v>
       </c>
@@ -2202,7 +2239,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>3940</v>
       </c>
@@ -2237,7 +2274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>2066</v>
       </c>
@@ -2272,7 +2309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="60">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>389</v>
       </c>
@@ -2342,7 +2379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="60">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>3868</v>
       </c>
@@ -2377,7 +2414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>5091</v>
       </c>
@@ -2412,7 +2449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="90">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>3311</v>
       </c>
@@ -2447,7 +2484,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>2068</v>
       </c>
@@ -2482,7 +2519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="60">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>377</v>
       </c>
@@ -2552,7 +2589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="60">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>3870</v>
       </c>
@@ -2587,7 +2624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="90">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>1137</v>
       </c>
@@ -2622,7 +2659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="165">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>3207</v>
       </c>
@@ -2657,7 +2694,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="105">
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>304</v>
       </c>
@@ -2692,7 +2729,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>2070</v>
       </c>
@@ -2762,7 +2799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="75">
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>182</v>
       </c>
@@ -2797,7 +2834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="60">
+    <row r="47" spans="1:11">
       <c r="A47" s="3">
         <v>3865</v>
       </c>
@@ -2832,7 +2869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="45">
+    <row r="48" spans="1:11">
       <c r="A48" s="3">
         <v>766</v>
       </c>
@@ -2867,7 +2904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="75">
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
         <v>1052</v>
       </c>
@@ -2902,7 +2939,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30">
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
         <v>3058</v>
       </c>
@@ -2937,7 +2974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="60">
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>1077</v>
       </c>
@@ -2972,7 +3009,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30">
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>2072</v>
       </c>
@@ -3007,7 +3044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30">
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>3205</v>
       </c>
@@ -3042,7 +3079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30">
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>3059</v>
       </c>
@@ -3077,7 +3114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="90">
+    <row r="55" spans="1:11">
       <c r="A55" s="3">
         <v>351</v>
       </c>
@@ -3112,7 +3149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30">
+    <row r="56" spans="1:11">
       <c r="A56" s="3">
         <v>1840</v>
       </c>
@@ -3147,7 +3184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="195">
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="3">
         <v>4535</v>
       </c>
@@ -3182,7 +3219,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="75">
+    <row r="58" spans="1:11">
       <c r="A58" s="3">
         <v>762</v>
       </c>
@@ -3217,7 +3254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="60">
+    <row r="59" spans="1:11">
       <c r="A59" s="3">
         <v>3865</v>
       </c>
@@ -3252,7 +3289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30">
+    <row r="60" spans="1:11">
       <c r="A60" s="3">
         <v>968</v>
       </c>
@@ -3287,7 +3324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30">
+    <row r="61" spans="1:11">
       <c r="A61" s="3">
         <v>2074</v>
       </c>
@@ -3322,7 +3359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="60">
+    <row r="62" spans="1:11">
       <c r="A62" s="3">
         <v>770</v>
       </c>
@@ -3357,7 +3394,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11">
       <c r="A63" s="3">
         <v>4056</v>
       </c>
@@ -3392,7 +3429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="45">
+    <row r="64" spans="1:11">
       <c r="A64" s="3">
         <v>1854</v>
       </c>
@@ -3427,7 +3464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="135">
+    <row r="65" spans="1:11">
       <c r="A65" s="3">
         <v>4560</v>
       </c>
@@ -3462,7 +3499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30">
+    <row r="66" spans="1:11">
       <c r="A66" s="3">
         <v>3074</v>
       </c>
@@ -3497,7 +3534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30">
+    <row r="67" spans="1:11">
       <c r="A67" s="3">
         <v>5092</v>
       </c>
@@ -3532,7 +3569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="45">
+    <row r="68" spans="1:11">
       <c r="A68" s="3">
         <v>702</v>
       </c>
@@ -3567,7 +3604,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="30">
+    <row r="69" spans="1:11">
       <c r="A69" s="3">
         <v>1956</v>
       </c>
@@ -3602,7 +3639,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="45">
+    <row r="70" spans="1:11">
       <c r="A70" s="3">
         <v>4556</v>
       </c>
@@ -3637,7 +3674,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="45">
+    <row r="71" spans="1:11">
       <c r="A71" s="3">
         <v>4519</v>
       </c>
@@ -3672,7 +3709,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30">
+    <row r="72" spans="1:11">
       <c r="A72" s="3">
         <v>2076</v>
       </c>
@@ -3707,7 +3744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="30">
+    <row r="73" spans="1:11">
       <c r="A73" s="3">
         <v>5093</v>
       </c>
@@ -3742,7 +3779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="30">
+    <row r="74" spans="1:11">
       <c r="A74" s="3">
         <v>3205</v>
       </c>
@@ -3777,7 +3814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30">
+    <row r="75" spans="1:11">
       <c r="A75" s="3">
         <v>4265</v>
       </c>
@@ -3812,7 +3849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="45">
+    <row r="76" spans="1:11">
       <c r="A76" s="3">
         <v>287</v>
       </c>
@@ -3847,7 +3884,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="45">
+    <row r="77" spans="1:11">
       <c r="A77" s="3">
         <v>518</v>
       </c>
@@ -3882,7 +3919,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30">
+    <row r="78" spans="1:11">
       <c r="A78" s="3">
         <v>1820</v>
       </c>
@@ -3917,7 +3954,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="45">
+    <row r="79" spans="1:11">
       <c r="A79" s="3">
         <v>426</v>
       </c>
@@ -3952,7 +3989,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="90">
+    <row r="80" spans="1:11">
       <c r="A80" s="3">
         <v>939</v>
       </c>
@@ -3987,7 +4024,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="60">
+    <row r="81" spans="1:11">
       <c r="A81" s="3">
         <v>1240</v>
       </c>
@@ -4022,7 +4059,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="60">
+    <row r="82" spans="1:11">
       <c r="A82" s="3">
         <v>3865</v>
       </c>
@@ -4057,7 +4094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="90">
+    <row r="83" spans="1:11">
       <c r="A83" s="3">
         <v>2717</v>
       </c>
@@ -4092,7 +4129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30">
+    <row r="84" spans="1:11">
       <c r="A84" s="3">
         <v>4442</v>
       </c>
@@ -4127,7 +4164,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30">
+    <row r="85" spans="1:11">
       <c r="A85" s="3">
         <v>4106</v>
       </c>
@@ -4162,7 +4199,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="60">
+    <row r="86" spans="1:11">
       <c r="A86" s="3">
         <v>488</v>
       </c>
@@ -4197,7 +4234,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="60">
+    <row r="87" spans="1:11">
       <c r="A87" s="3">
         <v>387</v>
       </c>
@@ -4232,7 +4269,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="60">
+    <row r="88" spans="1:11">
       <c r="A88" s="3">
         <v>4648</v>
       </c>
@@ -4267,7 +4304,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="45">
+    <row r="89" spans="1:11">
       <c r="A89" s="3">
         <v>534</v>
       </c>
@@ -4302,7 +4339,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="45">
+    <row r="90" spans="1:11">
       <c r="A90" s="3">
         <v>1251</v>
       </c>
@@ -4337,7 +4374,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="45">
+    <row r="91" spans="1:11">
       <c r="A91" s="3">
         <v>1255</v>
       </c>
@@ -4372,7 +4409,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="75">
+    <row r="92" spans="1:11">
       <c r="A92" s="3">
         <v>1259</v>
       </c>
@@ -4407,7 +4444,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="60">
+    <row r="93" spans="1:11">
       <c r="A93" s="3">
         <v>1263</v>
       </c>
@@ -4442,7 +4479,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="45">
+    <row r="94" spans="1:11">
       <c r="A94" s="3">
         <v>1275</v>
       </c>
@@ -4477,7 +4514,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="45">
+    <row r="95" spans="1:11">
       <c r="A95" s="3">
         <v>1277</v>
       </c>
@@ -4512,7 +4549,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="60">
+    <row r="96" spans="1:11">
       <c r="A96" s="3">
         <v>1279</v>
       </c>
@@ -4547,7 +4584,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="75">
+    <row r="97" spans="1:11">
       <c r="A97" s="3">
         <v>768</v>
       </c>
@@ -4582,7 +4619,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="75">
+    <row r="98" spans="1:11">
       <c r="A98" s="3">
         <v>1283</v>
       </c>
@@ -4617,7 +4654,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30">
+    <row r="99" spans="1:11">
       <c r="A99" s="3">
         <v>5094</v>
       </c>
@@ -4652,7 +4689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="45">
+    <row r="100" spans="1:11">
       <c r="A100" s="3">
         <v>226</v>
       </c>
@@ -4687,7 +4724,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="60">
+    <row r="101" spans="1:11">
       <c r="A101" s="3">
         <v>1261</v>
       </c>
@@ -4722,7 +4759,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="30">
+    <row r="102" spans="1:11">
       <c r="A102" s="3">
         <v>1265</v>
       </c>
@@ -4757,7 +4794,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="75">
+    <row r="103" spans="1:11">
       <c r="A103" s="3">
         <v>548</v>
       </c>
@@ -4792,7 +4829,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="75">
+    <row r="104" spans="1:11">
       <c r="A104" s="3">
         <v>1267</v>
       </c>
@@ -4827,7 +4864,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="60">
+    <row r="105" spans="1:11">
       <c r="A105" s="3">
         <v>1281</v>
       </c>
@@ -4862,7 +4899,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="60">
+    <row r="106" spans="1:11">
       <c r="A106" s="3">
         <v>1249</v>
       </c>
@@ -4897,7 +4934,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="60">
+    <row r="107" spans="1:11">
       <c r="A107" s="3">
         <v>1253</v>
       </c>
@@ -4932,7 +4969,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="45">
+    <row r="108" spans="1:11">
       <c r="A108" s="3">
         <v>1257</v>
       </c>
@@ -4967,7 +5004,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30">
+    <row r="109" spans="1:11">
       <c r="A109" s="3">
         <v>2078</v>
       </c>
@@ -4981,7 +5018,7 @@
         <v>15</v>
       </c>
       <c r="E109" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>79</v>
@@ -5002,7 +5039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30">
+    <row r="110" spans="1:11">
       <c r="A110" s="3">
         <v>5095</v>
       </c>
@@ -5037,7 +5074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="60">
+    <row r="111" spans="1:11">
       <c r="A111" s="3">
         <v>369</v>
       </c>
@@ -5051,7 +5088,7 @@
         <v>15</v>
       </c>
       <c r="E111" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>220</v>
@@ -5072,7 +5109,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="30">
+    <row r="112" spans="1:11">
       <c r="A112" s="3">
         <v>3205</v>
       </c>
@@ -5107,7 +5144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="45">
+    <row r="113" spans="1:11">
       <c r="A113" s="3">
         <v>2834</v>
       </c>
@@ -5121,7 +5158,7 @@
         <v>15</v>
       </c>
       <c r="E113" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>127</v>
@@ -5142,7 +5179,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="60">
+    <row r="114" spans="1:11">
       <c r="A114" s="3">
         <v>3865</v>
       </c>
@@ -5177,7 +5214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30">
+    <row r="115" spans="1:11">
       <c r="A115" s="3">
         <v>580</v>
       </c>
@@ -5191,7 +5228,7 @@
         <v>15</v>
       </c>
       <c r="E115" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>224</v>
@@ -5212,7 +5249,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="45">
+    <row r="116" spans="1:11">
       <c r="A116" s="3">
         <v>322</v>
       </c>
@@ -5226,7 +5263,7 @@
         <v>15</v>
       </c>
       <c r="E116" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>227</v>
@@ -5247,7 +5284,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="45">
+    <row r="117" spans="1:11">
       <c r="A117" s="3">
         <v>4271</v>
       </c>
@@ -5261,7 +5298,7 @@
         <v>15</v>
       </c>
       <c r="E117" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>141</v>
@@ -5282,7 +5319,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30">
+    <row r="118" spans="1:11">
       <c r="A118" s="3">
         <v>1912</v>
       </c>
@@ -5296,7 +5333,7 @@
         <v>15</v>
       </c>
       <c r="E118" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>231</v>
@@ -5317,7 +5354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="90">
+    <row r="119" spans="1:11">
       <c r="A119" s="3">
         <v>4575</v>
       </c>
@@ -5331,7 +5368,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>234</v>
@@ -5352,7 +5389,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30">
+    <row r="120" spans="1:11">
       <c r="A120" s="3">
         <v>2080</v>
       </c>
@@ -5387,7 +5424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="45">
+    <row r="121" spans="1:11">
       <c r="A121" s="3">
         <v>424</v>
       </c>
@@ -5422,7 +5459,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="30">
+    <row r="122" spans="1:11">
       <c r="A122" s="3">
         <v>3205</v>
       </c>
@@ -5457,7 +5494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="75">
+    <row r="123" spans="1:11">
       <c r="A123" s="3">
         <v>4134</v>
       </c>
@@ -5492,7 +5529,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="30">
+    <row r="124" spans="1:11">
       <c r="A124" s="3">
         <v>5096</v>
       </c>
@@ -5527,7 +5564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="45">
+    <row r="125" spans="1:11">
       <c r="A125" s="3">
         <v>4390</v>
       </c>
@@ -5562,7 +5599,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="45">
+    <row r="126" spans="1:11">
       <c r="A126" s="3">
         <v>2923</v>
       </c>
@@ -5597,7 +5634,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="120">
+    <row r="127" spans="1:11">
       <c r="A127" s="3">
         <v>289</v>
       </c>
@@ -5632,7 +5669,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="120">
+    <row r="128" spans="1:11">
       <c r="A128" s="3">
         <v>522</v>
       </c>
@@ -5667,7 +5704,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="45">
+    <row r="129" spans="1:11">
       <c r="A129" s="3">
         <v>4048</v>
       </c>
@@ -5704,6 +5741,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
